--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -107,30 +107,6 @@
   </si>
   <si>
     <t>Not bad, found a nice Chinese restaurant today.</t>
-  </si>
-  <si>
-    <t>1/16/2020</t>
-  </si>
-  <si>
-    <t>Find two potential projects for team</t>
-  </si>
-  <si>
-    <t>Successfully deployed RXjava and ElasticSearch on my own device</t>
-  </si>
-  <si>
-    <t>Not bad. Though I met some problems during deploying, like ElasticSearch needs Java13, but I fixed it.</t>
-  </si>
-  <si>
-    <t>1/17/2020</t>
-  </si>
-  <si>
-    <t>We made a temporary decision that to choose "lombok" as our team project</t>
-  </si>
-  <si>
-    <t>I met some errors when deploying the lombok on my own device. I will try to figure it out. Except this little issue, I think Lombok is a good project for our team</t>
-  </si>
-  <si>
-    <t>Not bad</t>
   </si>
 </sst>
 </file>
@@ -138,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -229,10 +205,117 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,113 +326,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -384,61 +360,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,97 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,8 +533,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,21 +550,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,17 +571,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -628,11 +578,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,16 +618,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,14 +645,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,111 +661,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1150,10 +1126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1339,56 +1315,28 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="42" customHeight="1" spans="1:7">
-      <c r="A13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="11">
-        <v>0.965972222222222</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="85" customHeight="1" spans="1:7">
-      <c r="A14" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="11">
-        <v>0.532638888888889</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>38</v>
-      </c>
+    <row r="13" ht="15.6" spans="1:7">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" ht="15.6" spans="1:7">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1398,16 +1346,16 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
@@ -1416,7 +1364,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
@@ -1434,7 +1382,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
@@ -1443,7 +1391,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
@@ -2365,24 +2313,6 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
-    </row>
-    <row r="124" ht="15.6" spans="1:7">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" ht="15.6" spans="1:7">
-      <c r="A125" s="10"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -114,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -205,6 +205,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -221,22 +289,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,76 +326,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,169 +354,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,39 +532,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,32 +546,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -627,16 +573,70 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,14 +645,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,111 +661,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:G123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -107,6 +107,30 @@
   </si>
   <si>
     <t>Not bad, found a nice Chinese restaurant today.</t>
+  </si>
+  <si>
+    <t>1/16/2020</t>
+  </si>
+  <si>
+    <t>Find two potential projects for team</t>
+  </si>
+  <si>
+    <t>Successfully deployed RXjava and ElasticSearch on my own device</t>
+  </si>
+  <si>
+    <t>Not bad. Though I met some problems during deploying, like ElasticSearch needs Java13, but I fixed it.</t>
+  </si>
+  <si>
+    <t>1/17/2020</t>
+  </si>
+  <si>
+    <t>We made a temporary decision that to choose "lombok" as our team project</t>
+  </si>
+  <si>
+    <t>I met some errors when deploying the lombok on my own device. I will try to figure it out. Except this little issue, I think Lombok is a good project for our team</t>
+  </si>
+  <si>
+    <t>Not bad</t>
   </si>
 </sst>
 </file>
@@ -116,8 +140,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -205,6 +229,81 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,18 +312,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,15 +328,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,75 +350,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -354,169 +378,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,59 +556,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,6 +593,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -627,16 +636,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -645,14 +669,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -661,111 +685,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1126,10 +1150,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1315,28 +1339,56 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" ht="15.6" spans="1:7">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="15.6" spans="1:7">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="12"/>
+    <row r="13" ht="42" customHeight="1" spans="1:7">
+      <c r="A13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="11">
+        <v>0.965972222222222</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" ht="85" customHeight="1" spans="1:7">
+      <c r="A14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="11">
+        <v>0.532638888888889</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1346,16 +1398,16 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" ht="15.6" spans="1:7">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="12"/>
@@ -1364,7 +1416,7 @@
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="12"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="12"/>
@@ -1382,7 +1434,7 @@
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="12"/>
@@ -1391,7 +1443,7 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="12"/>
@@ -2313,6 +2365,24 @@
       <c r="E123" s="10"/>
       <c r="F123" s="10"/>
       <c r="G123" s="12"/>
+    </row>
+    <row r="124" ht="15.6" spans="1:7">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="10"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="12"/>
+    </row>
+    <row r="125" ht="15.6" spans="1:7">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -131,6 +131,21 @@
   </si>
   <si>
     <t>Not bad</t>
+  </si>
+  <si>
+    <t>Change the team project to a more suitable one</t>
+  </si>
+  <si>
+    <t>I just think that last project is not that appropriate. Anyway, I find another Android app since we can run it and see the features, it's easier and more interesting to explore this project.</t>
+  </si>
+  <si>
+    <t>1/18/2020</t>
+  </si>
+  <si>
+    <t>Finish the assignment</t>
+  </si>
+  <si>
+    <t>It's interesting to explore the Pacman project. I did just what we learnt on class, it's really useful.</t>
   </si>
 </sst>
 </file>
@@ -138,8 +153,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -236,6 +251,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -245,16 +336,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,91 +365,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -378,169 +393,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,39 +571,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,29 +597,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,16 +618,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -669,14 +684,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,111 +700,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1152,8 +1167,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1385,23 +1400,51 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" ht="15.6" spans="1:7">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="15.6" spans="1:7">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="12"/>
+    <row r="15" ht="102" customHeight="1" spans="1:7">
+      <c r="A15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="11">
+        <v>0.925694444444444</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="64" customHeight="1" spans="1:7">
+      <c r="A16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="11">
+        <v>0.518055555555556</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" ht="15.6" spans="1:7">
       <c r="A17" s="9"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -167,6 +167,39 @@
   </si>
   <si>
     <t>I read the first two articles carefully. It's helpful, but I still think that more practice might be more direct. Anyway, we will learn this through this course.</t>
+  </si>
+  <si>
+    <t>1/24/2020</t>
+  </si>
+  <si>
+    <t>Find the features of the project</t>
+  </si>
+  <si>
+    <t>meet problems</t>
+  </si>
+  <si>
+    <t>When I was trying to find features of our project, I realized that this project was not that suitable for this course, since it looked more like a library. And the demo provided in the project was really simple. Our group decided to review it again and found a solution</t>
+  </si>
+  <si>
+    <t>1/25/2020</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Find a alternative project</t>
+  </si>
+  <si>
+    <t>We finally decided to switch to another project. But we still need to communicate with Kaj to see what he says. We think that JabRef is kind of good of this course.</t>
+  </si>
+  <si>
+    <t>1/27/2020</t>
+  </si>
+  <si>
+    <t>Find two features for the new project</t>
+  </si>
+  <si>
+    <t>Kaj approved our request. We started to look into the new project using what we learnt in class. It worked out well. We made a platform to record our work. One thing is that our UML plots are really big, we still need to find a proper way to print it and learn it.</t>
   </si>
 </sst>
 </file>
@@ -174,9 +207,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -288,6 +321,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -295,17 +343,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -317,6 +389,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -327,71 +422,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -428,163 +461,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,6 +640,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -618,6 +666,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,15 +720,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -656,55 +728,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,124 +746,124 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1198,7 +1231,7 @@
   <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1522,32 +1555,74 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" ht="15.6" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" ht="15.6" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" ht="15.6" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="13"/>
+    <row r="19" ht="133" customHeight="1" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.498611111111111</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="109" customHeight="1" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="12">
+        <v>0.772222222222222</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" ht="113" customHeight="1" spans="1:7">
+      <c r="A21" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12">
+        <v>0.839583333333333</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" ht="15.6" spans="1:7">
       <c r="A22" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -200,6 +200,15 @@
   </si>
   <si>
     <t>Kaj approved our request. We started to look into the new project using what we learnt in class. It worked out well. We made a platform to record our work. One thing is that our UML plots are really big, we still need to find a proper way to print it and learn it.</t>
+  </si>
+  <si>
+    <t>1/28/2020</t>
+  </si>
+  <si>
+    <t>Finish the document for Assignment</t>
+  </si>
+  <si>
+    <t>We write the document for assignment and Yitian finds a way to print our UML plots. We decide to review our assignment tomorrow and submit it after that.</t>
   </si>
 </sst>
 </file>
@@ -320,6 +329,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -327,106 +436,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -461,163 +470,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,8 +642,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -650,6 +661,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -674,7 +709,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -693,51 +737,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -749,11 +758,11 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -762,108 +771,108 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1230,8 +1239,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1601,7 +1610,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" ht="113" customHeight="1" spans="1:7">
+    <row r="21" ht="145" customHeight="1" spans="1:7">
       <c r="A21" s="11" t="s">
         <v>59</v>
       </c>
@@ -1624,14 +1633,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" ht="15.6" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="13"/>
+    <row r="22" ht="87" customHeight="1" spans="1:7">
+      <c r="A22" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="12">
+        <v>0.907638888888889</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="23" ht="15.6" spans="1:7">
       <c r="A23" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -209,6 +209,15 @@
   </si>
   <si>
     <t>We write the document for assignment and Yitian finds a way to print our UML plots. We decide to review our assignment tomorrow and submit it after that.</t>
+  </si>
+  <si>
+    <t>1/30/2020</t>
+  </si>
+  <si>
+    <t>Review and Submit assignment</t>
+  </si>
+  <si>
+    <t>We reviewed the assignment this morning and submit it.</t>
   </si>
 </sst>
 </file>
@@ -216,10 +225,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -315,6 +324,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -323,16 +371,62 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -351,91 +445,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -464,13 +473,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -482,151 +599,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,26 +651,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,32 +715,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -743,10 +752,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -755,14 +764,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,111 +780,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1239,8 +1248,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1656,14 +1665,28 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" ht="15.6" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="13"/>
+    <row r="23" ht="47" customHeight="1" spans="1:7">
+      <c r="A23" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="12">
+        <v>0.613194444444444</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="24" ht="15.6" spans="1:7">
       <c r="A24" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -218,6 +218,45 @@
   </si>
   <si>
     <t>We reviewed the assignment this morning and submit it.</t>
+  </si>
+  <si>
+    <t>1/31/2020</t>
+  </si>
+  <si>
+    <t>Review the course, and prepare for the assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The features our team find last time are definitely not essential features. I thought that the Maintable in our project is an essential feature, but how to define the boundary of this feature might be a problem. </t>
+  </si>
+  <si>
+    <t>2/2/2020</t>
+  </si>
+  <si>
+    <t>Discuss the assignments</t>
+  </si>
+  <si>
+    <t>Our team decides to have a team discussion next week. I want to prepare something for the discussion, so I try to find some clues about the feature "Maintable"</t>
+  </si>
+  <si>
+    <t>2/4/2020</t>
+  </si>
+  <si>
+    <t>Team discussion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had the team discussion this afternoon, and divided tasks to different members. Although we had some divergence, we have agreement in the end. We set the MainTable and EntryEditor as our two features. Besides, we want to explain the MainTable in a kind of high level and EntryEditor in details. </t>
+  </si>
+  <si>
+    <t>2/5/2020</t>
+  </si>
+  <si>
+    <t>Do assignments</t>
+  </si>
+  <si>
+    <t>Almost done</t>
+  </si>
+  <si>
+    <t>We discussed a lot of things about the assignment, such as the format, what kind of diagram we need, etc. We add more things to our assignment, it's almost done.</t>
   </si>
 </sst>
 </file>
@@ -225,10 +264,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -324,6 +363,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -340,76 +447,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,18 +462,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,6 +476,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -473,13 +512,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,7 +590,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,133 +632,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,11 +712,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,66 +785,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -764,14 +803,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -780,111 +819,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1248,8 +1287,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E21" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1688,41 +1727,97 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" ht="15.6" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25" ht="15.6" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="13"/>
-    </row>
-    <row r="26" ht="15.6" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" ht="15.6" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="13"/>
+    <row r="24" ht="115" customHeight="1" spans="1:7">
+      <c r="A24" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0.5375</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" ht="100" customHeight="1" spans="1:7">
+      <c r="A25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="12">
+        <v>0.891666666666667</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" ht="164" customHeight="1" spans="1:7">
+      <c r="A26" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="12">
+        <v>0.954166666666667</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" ht="99" customHeight="1" spans="1:7">
+      <c r="A27" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="12">
+        <v>0.625</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="28" ht="15.6" spans="1:7">
       <c r="A28" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -257,6 +257,36 @@
   </si>
   <si>
     <t>We discussed a lot of things about the assignment, such as the format, what kind of diagram we need, etc. We add more things to our assignment, it's almost done.</t>
+  </si>
+  <si>
+    <t>2/7/2020</t>
+  </si>
+  <si>
+    <t>Review slides</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I review the slides and make a summary for what I have learned. </t>
+  </si>
+  <si>
+    <t>2/9/2020</t>
+  </si>
+  <si>
+    <t>Prepare midterm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try to remember some concepts, still need more time to do this. </t>
+  </si>
+  <si>
+    <t>2/11/2020</t>
+  </si>
+  <si>
+    <t>We received our grades for assignment 1. It was awful. We decided to meet Kaj on Wednesday office hour. Continue reviewing summary.</t>
+  </si>
+  <si>
+    <t>Bad</t>
   </si>
 </sst>
 </file>
@@ -265,9 +295,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -363,8 +393,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,30 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -408,11 +415,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -425,14 +431,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -448,7 +454,47 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,24 +508,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,19 +542,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,43 +656,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -596,7 +692,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,73 +704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,30 +715,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -741,8 +747,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -785,16 +806,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,14 +833,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -819,111 +849,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1287,8 +1317,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1819,32 +1849,74 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" ht="15.6" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" ht="15.6" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="13"/>
-    </row>
-    <row r="30" ht="15.6" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="13"/>
+    <row r="28" ht="55" customHeight="1" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="12">
+        <v>0.929861111111111</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" ht="55" customHeight="1" spans="1:7">
+      <c r="A29" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="12">
+        <v>0.985416666666667</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" ht="97" customHeight="1" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="12">
+        <v>0.489583333333333</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="31" ht="15.6" spans="1:7">
       <c r="A31" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -287,6 +287,48 @@
   </si>
   <si>
     <t>Bad</t>
+  </si>
+  <si>
+    <t>2/13/2020</t>
+  </si>
+  <si>
+    <t>Review the slides</t>
+  </si>
+  <si>
+    <t>Today I think I have learnt something outside the codes. It makes me realize that people related to the project, such as stakeholder, developers, are also important for a project</t>
+  </si>
+  <si>
+    <t>2/16/2020</t>
+  </si>
+  <si>
+    <t>Revise the assignment2</t>
+  </si>
+  <si>
+    <t>We found a new feature for assignment2. But there are still a lot of things left to finish.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since this week we talked to Kaj, he taught us a lot of things about report. Especially how to relate the diagrams to text, how to make report concise. </t>
+  </si>
+  <si>
+    <t>2/17/2020</t>
+  </si>
+  <si>
+    <t>Add more stuff to the new feature and revise the feature2.</t>
+  </si>
+  <si>
+    <t>When I look to our feature2 again, I find some places to improve. For example. I add a little more explanation to the diagram. What I can learn from this is that always consider yourself as a reader, could you totally understand this report?</t>
+  </si>
+  <si>
+    <t>2/18/2020</t>
+  </si>
+  <si>
+    <t>Start assignment3</t>
+  </si>
+  <si>
+    <t>We divide the assignment to three parts, each team member has one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I find out that I don't totally understand what's the stakeholders in our project. I still need more time on it. </t>
   </si>
 </sst>
 </file>
@@ -295,8 +337,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -393,14 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -408,28 +442,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -445,8 +457,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -461,59 +542,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -542,37 +584,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,127 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,32 +757,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -764,15 +780,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,16 +822,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -833,14 +875,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,111 +891,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1317,8 +1359,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1918,41 +1960,97 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" ht="15.6" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="13"/>
-    </row>
-    <row r="32" ht="15.6" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="13"/>
-    </row>
-    <row r="33" ht="15.6" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="13"/>
-    </row>
-    <row r="34" ht="15.6" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="13"/>
+    <row r="31" ht="109" customHeight="1" spans="1:7">
+      <c r="A31" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="12">
+        <v>0.993055555555556</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" ht="89" customHeight="1" spans="1:7">
+      <c r="A32" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="12">
+        <v>0.536111111111111</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" ht="123" customHeight="1" spans="1:7">
+      <c r="A33" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" s="12">
+        <v>0.895138888888889</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" ht="85" customHeight="1" spans="1:7">
+      <c r="A34" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="12">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="35" ht="15.6" spans="1:7">
       <c r="A35" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -329,6 +329,45 @@
   </si>
   <si>
     <t xml:space="preserve">I find out that I don't totally understand what's the stakeholders in our project. I still need more time on it. </t>
+  </si>
+  <si>
+    <t>2/20/2020</t>
+  </si>
+  <si>
+    <t>find interesting issues for our project</t>
+  </si>
+  <si>
+    <t>almost done</t>
+  </si>
+  <si>
+    <t>This task is kind of difficult since I am not sure how to define "interesting". I spent a long time reading the issues one by one, however, the process itself it's interesting. I saw people have different ideas about this same project, and everyone met different problems.</t>
+  </si>
+  <si>
+    <t>2/21/2020</t>
+  </si>
+  <si>
+    <t>find 5 interesting issues</t>
+  </si>
+  <si>
+    <t>I did find something interesting. Those people are really humorous. After this assginment, I just realize that looking through issues is not that boring.</t>
+  </si>
+  <si>
+    <t>2/22/2020</t>
+  </si>
+  <si>
+    <t>discuss the architecture</t>
+  </si>
+  <si>
+    <t>We find some documentions about the architecture. But we think we can still draw our own. I get to know that architecture should be clear and concise, we don't need something complex.</t>
+  </si>
+  <si>
+    <t>2/24/2020</t>
+  </si>
+  <si>
+    <t>draw architecture for project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We draw the diagrams today and attach some explanations. This really helps us better understand the whole project. I just feel that we should have done this at the very beginning, because this is really helpful. </t>
   </si>
 </sst>
 </file>
@@ -338,8 +377,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -435,6 +474,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -444,6 +498,28 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,55 +541,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -535,27 +575,26 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -584,163 +623,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,9 +801,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,21 +869,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,51 +896,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,14 +914,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -891,111 +930,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1359,8 +1398,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2052,41 +2091,97 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" ht="15.6" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="13"/>
-    </row>
-    <row r="36" ht="15.6" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="13"/>
-    </row>
-    <row r="37" ht="15.6" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="13"/>
-    </row>
-    <row r="38" ht="15.6" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="13"/>
+    <row r="35" ht="153" customHeight="1" spans="1:7">
+      <c r="A35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="12">
+        <v>0.995138888888889</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" ht="100" customHeight="1" spans="1:7">
+      <c r="A36" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36" s="12">
+        <v>0.805555555555556</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" ht="97" customHeight="1" spans="1:7">
+      <c r="A37" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B37" s="12">
+        <v>0.8625</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" ht="134" customHeight="1" spans="1:7">
+      <c r="A38" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.890277777777778</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="39" ht="15.6" spans="1:7">
       <c r="A39" s="11"/>

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -368,6 +368,36 @@
   </si>
   <si>
     <t xml:space="preserve">We draw the diagrams today and attach some explanations. This really helps us better understand the whole project. I just feel that we should have done this at the very beginning, because this is really helpful. </t>
+  </si>
+  <si>
+    <t>2/27/2020</t>
+  </si>
+  <si>
+    <t>Find two issues to fix</t>
+  </si>
+  <si>
+    <t>Not done</t>
+  </si>
+  <si>
+    <t>Actually, we need to find two issues and fix them. I just feel that this is kind of difficult because first we need to totally understand what that issue is talking about. Secondly, we'd better reproduce that error since it can help us understand what is the problem.  And we need to estimate whether we have enough time to fix it</t>
+  </si>
+  <si>
+    <t>2/28/2020</t>
+  </si>
+  <si>
+    <t>Fix two issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found an issue for this week assignment. But we think we should fix two issues at same time because next week is around final week. I tried working on the second issue, and already get some progress. </t>
+  </si>
+  <si>
+    <t>3/2/2020</t>
+  </si>
+  <si>
+    <t>Fix second issue</t>
+  </si>
+  <si>
+    <t>I made a PR for second issue, rejected. However, developers gave us some really useful advices about how to improve our code, so, it's not too bad. We'll keep working on it.</t>
   </si>
 </sst>
 </file>
@@ -375,10 +405,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -474,16 +504,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -496,16 +526,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,13 +548,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -533,9 +556,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,9 +579,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -573,28 +594,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -623,7 +653,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,13 +725,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,13 +803,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -671,121 +815,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +829,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,15 +897,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,48 +918,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,10 +932,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -914,127 +944,127 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1398,8 +1428,8 @@
   <sheetPr/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2183,34 +2213,76 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" ht="15.6" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="13"/>
-    </row>
-    <row r="40" ht="15.6" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="13"/>
-    </row>
-    <row r="41" ht="15.6" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="13"/>
-    </row>
-    <row r="42" ht="15.6" spans="1:7">
+    <row r="39" ht="185" customHeight="1" spans="1:7">
+      <c r="A39" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.965277777777778</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" ht="108" customHeight="1" spans="1:7">
+      <c r="A40" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.932638888888889</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" ht="97" customHeight="1" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.966666666666667</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" ht="35" customHeight="1" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
